--- a/biology/Médecine/Morell_Mackenzie/Morell_Mackenzie.xlsx
+++ b/biology/Médecine/Morell_Mackenzie/Morell_Mackenzie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morell Mackenzie, sir Mackenzie, né à Leytonstone, au Royaume-Uni, le 7 juillet 1837, et décédé à Londres le 3 février 1892, est un médecin britannique. Pionnier de la laryngologie en Grande-Bretagne, il est l’auteur de plusieurs ouvrages consacrés à cette discipline. Il est cependant surtout connu pour avoir mal diagnostiqué le cancer du larynx du Kaiser Frédéric III d’Allemagne.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né dans l'Essex en 1837, Morell Mackenzie est le fils d'un médecin généraliste, et le frère ainé de Stephen qui deviendra lui aussi un éminent médecin à l'hôpital de Londres[1].
-En 1856, il entre comme étudiant en médecine à l'hôpital de Londres, puis sort diplômé en 1858 et part à Paris, rencontrant les docteurs Armand Trousseau, Auguste Nelaton, Philippe Ricord et d'autres, puis à Vienne où il étudie sous la supervision d'Oppolzer, Skoda, Rokitansky et Hebra. Finalement, il se rend à Budapest où il découvre l'utilisation du laryngoscope inventé par Manuel Garcia et rapporté par Czermak[1].
-De retour à Londres, il exerce à l'hôpital de Londres, où il sera fait médecin assistant en 1866 puis médecin en 1873. En 1863, il remporte le Prix Jackson du Collège Royal des Chirurgiens grâce à un essai sur la pathologie et le traitement des maladies du larynx[1]. Il fonde la même année, l'hôpital pour les maladies du larynx[2].
-Par ailleurs, Mackenzie épouse la fille d'Adam Hervey[2].
-C'est en 1887, qu'il est appelé par Berlin pour soigner le Kronprinz Frédéric III. La presse et les médecins allemands le critiquèrent pour la trachéotomie qu'il pratiqua. En 1888, il publie l'ouvrage intitulé Auto-défense dans la bibliographie ci-dessous pour combattre les assertions lancées contre lui[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né dans l'Essex en 1837, Morell Mackenzie est le fils d'un médecin généraliste, et le frère ainé de Stephen qui deviendra lui aussi un éminent médecin à l'hôpital de Londres.
+En 1856, il entre comme étudiant en médecine à l'hôpital de Londres, puis sort diplômé en 1858 et part à Paris, rencontrant les docteurs Armand Trousseau, Auguste Nelaton, Philippe Ricord et d'autres, puis à Vienne où il étudie sous la supervision d'Oppolzer, Skoda, Rokitansky et Hebra. Finalement, il se rend à Budapest où il découvre l'utilisation du laryngoscope inventé par Manuel Garcia et rapporté par Czermak.
+De retour à Londres, il exerce à l'hôpital de Londres, où il sera fait médecin assistant en 1866 puis médecin en 1873. En 1863, il remporte le Prix Jackson du Collège Royal des Chirurgiens grâce à un essai sur la pathologie et le traitement des maladies du larynx. Il fonde la même année, l'hôpital pour les maladies du larynx.
+Par ailleurs, Mackenzie épouse la fille d'Adam Hervey.
+C'est en 1887, qu'il est appelé par Berlin pour soigner le Kronprinz Frédéric III. La presse et les médecins allemands le critiquèrent pour la trachéotomie qu'il pratiqua. En 1888, il publie l'ouvrage intitulé Auto-défense dans la bibliographie ci-dessous pour combattre les assertions lancées contre lui.
 </t>
         </is>
       </c>
